--- a/data/pca/factorExposure/factorExposure_2012-10-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-10-19.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002442767109884075</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001742136180036555</v>
+      </c>
+      <c r="C2">
+        <v>0.02963248901241958</v>
+      </c>
+      <c r="D2">
+        <v>0.005812469902146107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001977279638709806</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006996001744005683</v>
+      </c>
+      <c r="C4">
+        <v>0.08262545949272083</v>
+      </c>
+      <c r="D4">
+        <v>0.07288355113545691</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.002050343995391928</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01395280821066201</v>
+      </c>
+      <c r="C6">
+        <v>0.1128187445664703</v>
+      </c>
+      <c r="D6">
+        <v>0.02459909135399336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001118510993548149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004957655065963464</v>
+      </c>
+      <c r="C7">
+        <v>0.05803012148940793</v>
+      </c>
+      <c r="D7">
+        <v>0.03290735388621966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0006011231412819559</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005571996044146654</v>
+      </c>
+      <c r="C8">
+        <v>0.0342604585231009</v>
+      </c>
+      <c r="D8">
+        <v>0.04048829972649139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.004200497874486177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005061191039182618</v>
+      </c>
+      <c r="C9">
+        <v>0.0702104336686209</v>
+      </c>
+      <c r="D9">
+        <v>0.07628224730961618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.001399028686268491</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005614205195448906</v>
+      </c>
+      <c r="C10">
+        <v>0.05648536106146864</v>
+      </c>
+      <c r="D10">
+        <v>-0.1956543923517856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003787836018740018</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005735469799805665</v>
+      </c>
+      <c r="C11">
+        <v>0.07926063172577628</v>
+      </c>
+      <c r="D11">
+        <v>0.06437129460813679</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.001452938723251162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004090874717298918</v>
+      </c>
+      <c r="C12">
+        <v>0.06413054161649746</v>
+      </c>
+      <c r="D12">
+        <v>0.05164077740275196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002043909507172354</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008610053796806629</v>
+      </c>
+      <c r="C13">
+        <v>0.06680086117806666</v>
+      </c>
+      <c r="D13">
+        <v>0.06450264476768065</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002532997835288462</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0007514566727904137</v>
+      </c>
+      <c r="C14">
+        <v>0.04217382429891908</v>
+      </c>
+      <c r="D14">
+        <v>0.01001082000483179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0007274699924651207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.006011557142492033</v>
+      </c>
+      <c r="C15">
+        <v>0.04071109553783286</v>
+      </c>
+      <c r="D15">
+        <v>0.03003089857605489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001428547570125156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005079243456922088</v>
+      </c>
+      <c r="C16">
+        <v>0.06408694751099578</v>
+      </c>
+      <c r="D16">
+        <v>0.05632488412912685</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0002548608350025745</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.009071199812437137</v>
+      </c>
+      <c r="C20">
+        <v>0.06359738747256004</v>
+      </c>
+      <c r="D20">
+        <v>0.05013723722892434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.007032781888606748</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009632508818467613</v>
+      </c>
+      <c r="C21">
+        <v>0.01953054036490088</v>
+      </c>
+      <c r="D21">
+        <v>0.0430217292428116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01644959996764433</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006528617950641801</v>
+      </c>
+      <c r="C22">
+        <v>0.08697072205051583</v>
+      </c>
+      <c r="D22">
+        <v>0.1219895112173336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.0162311175226437</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006340607420003056</v>
+      </c>
+      <c r="C23">
+        <v>0.08748044206216786</v>
+      </c>
+      <c r="D23">
+        <v>0.1228010908602965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.003034442476833909</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005634608464574753</v>
+      </c>
+      <c r="C24">
+        <v>0.07568234441023713</v>
+      </c>
+      <c r="D24">
+        <v>0.0681565544987818</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004800117743384695</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003219677048560384</v>
+      </c>
+      <c r="C25">
+        <v>0.07791579189706398</v>
+      </c>
+      <c r="D25">
+        <v>0.06636957386491628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.003618840633132613</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003678289597890638</v>
+      </c>
+      <c r="C26">
+        <v>0.038760603777402</v>
+      </c>
+      <c r="D26">
+        <v>0.02558451756374302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.00643125196414985</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001267349652287191</v>
+      </c>
+      <c r="C28">
+        <v>0.1045417164832348</v>
+      </c>
+      <c r="D28">
+        <v>-0.3199375356309094</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001573255122541306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002613616790876645</v>
+      </c>
+      <c r="C29">
+        <v>0.04852302010912297</v>
+      </c>
+      <c r="D29">
+        <v>0.008808518190682169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.006876498386971249</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009946187707761987</v>
+      </c>
+      <c r="C30">
+        <v>0.1421304880935045</v>
+      </c>
+      <c r="D30">
+        <v>0.1094069562409273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0006100778948448935</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006256484699993415</v>
+      </c>
+      <c r="C31">
+        <v>0.04353914064648323</v>
+      </c>
+      <c r="D31">
+        <v>0.03154727753325277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001871231266620515</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003607175987238763</v>
+      </c>
+      <c r="C32">
+        <v>0.03964239093414416</v>
+      </c>
+      <c r="D32">
+        <v>0.02657660520330045</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003028784407977709</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009025467337967641</v>
+      </c>
+      <c r="C33">
+        <v>0.08817927980073766</v>
+      </c>
+      <c r="D33">
+        <v>0.06584092886411284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004438538622852266</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004111484214177764</v>
+      </c>
+      <c r="C34">
+        <v>0.05727012812929083</v>
+      </c>
+      <c r="D34">
+        <v>0.05837534634975011</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0002816528154544255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005215275959178168</v>
+      </c>
+      <c r="C35">
+        <v>0.0407125662737414</v>
+      </c>
+      <c r="D35">
+        <v>0.0199957147993626</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004645347637321803</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001219313104598654</v>
+      </c>
+      <c r="C36">
+        <v>0.02443913850912288</v>
+      </c>
+      <c r="D36">
+        <v>0.02599601053671701</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.001152945283756899</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009312339821703397</v>
+      </c>
+      <c r="C38">
+        <v>0.03803988940008569</v>
+      </c>
+      <c r="D38">
+        <v>0.01378955729585632</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01446211292227075</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0008553744959724025</v>
+      </c>
+      <c r="C39">
+        <v>0.1140788192598484</v>
+      </c>
+      <c r="D39">
+        <v>0.07913237462314258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009505214735512767</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003705981273214776</v>
+      </c>
+      <c r="C40">
+        <v>0.08953527362966042</v>
+      </c>
+      <c r="D40">
+        <v>0.01762999345548924</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.000403179330732637</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007200638367739309</v>
+      </c>
+      <c r="C41">
+        <v>0.03871729108578106</v>
+      </c>
+      <c r="D41">
+        <v>0.03857536205701836</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003069518364951238</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003970093262394381</v>
+      </c>
+      <c r="C43">
+        <v>0.05346583266100149</v>
+      </c>
+      <c r="D43">
+        <v>0.02729758561628569</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.01367799255398727</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003054173554308668</v>
+      </c>
+      <c r="C44">
+        <v>0.1050832457540483</v>
+      </c>
+      <c r="D44">
+        <v>0.069538042212292</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001787881751780844</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001796508792092727</v>
+      </c>
+      <c r="C46">
+        <v>0.03268441549140961</v>
+      </c>
+      <c r="D46">
+        <v>0.03390037194696997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.002335562618530181</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002083562648093196</v>
+      </c>
+      <c r="C47">
+        <v>0.03464559202547884</v>
+      </c>
+      <c r="D47">
+        <v>0.02260738770855469</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.00410901582563901</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006676575496912709</v>
+      </c>
+      <c r="C48">
+        <v>0.03001749682682158</v>
+      </c>
+      <c r="D48">
+        <v>0.03701554345791592</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01137254749327604</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01763255355124809</v>
+      </c>
+      <c r="C49">
+        <v>0.1896683887037782</v>
+      </c>
+      <c r="D49">
+        <v>0.006438784951162982</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.000867812329783556</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003523720059288117</v>
+      </c>
+      <c r="C50">
+        <v>0.04258846239704586</v>
+      </c>
+      <c r="D50">
+        <v>0.03886846456087047</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0007311377144855218</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004782405385519271</v>
+      </c>
+      <c r="C51">
+        <v>0.02549128376987859</v>
+      </c>
+      <c r="D51">
+        <v>0.02222601286491905</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0002795381231687378</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02143420311382685</v>
+      </c>
+      <c r="C53">
+        <v>0.1715314291994072</v>
+      </c>
+      <c r="D53">
+        <v>0.0226674786984308</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001846546099292516</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008865489601759554</v>
+      </c>
+      <c r="C54">
+        <v>0.05306040325628626</v>
+      </c>
+      <c r="D54">
+        <v>0.04651270696713335</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.00446170083321871</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009653734919733406</v>
+      </c>
+      <c r="C55">
+        <v>0.1076663151913188</v>
+      </c>
+      <c r="D55">
+        <v>0.04062865007399073</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.001460355028907985</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02015405544939571</v>
+      </c>
+      <c r="C56">
+        <v>0.1756686342739629</v>
+      </c>
+      <c r="D56">
+        <v>0.01527306218196309</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.005364304833428261</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01939601785360598</v>
+      </c>
+      <c r="C58">
+        <v>0.1048127891916383</v>
+      </c>
+      <c r="D58">
+        <v>0.07231652849491653</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.01055417557426175</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01026614226691068</v>
+      </c>
+      <c r="C59">
+        <v>0.1682813254824851</v>
+      </c>
+      <c r="D59">
+        <v>-0.3411445170821636</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.005887353612161764</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02543461466006215</v>
+      </c>
+      <c r="C60">
+        <v>0.225583889760489</v>
+      </c>
+      <c r="D60">
+        <v>0.02136538735218355</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01397013890829251</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001811098555173842</v>
+      </c>
+      <c r="C61">
+        <v>0.09450608932312789</v>
+      </c>
+      <c r="D61">
+        <v>0.05882592590329213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1579873224068171</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1487645432012823</v>
+      </c>
+      <c r="C62">
+        <v>0.09554396007904238</v>
+      </c>
+      <c r="D62">
+        <v>0.02520440110404678</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0003282478086473621</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006627110002717626</v>
+      </c>
+      <c r="C63">
+        <v>0.05345682464506752</v>
+      </c>
+      <c r="D63">
+        <v>0.03248311485077158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0006371983213224628</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01601781406477458</v>
+      </c>
+      <c r="C64">
+        <v>0.104726968517012</v>
+      </c>
+      <c r="D64">
+        <v>0.05680140010181443</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002160001072911951</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01788904417912146</v>
+      </c>
+      <c r="C65">
+        <v>0.121686452727228</v>
+      </c>
+      <c r="D65">
+        <v>0.02401739740342311</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.005509384855279472</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01385582653691592</v>
+      </c>
+      <c r="C66">
+        <v>0.162061207624661</v>
+      </c>
+      <c r="D66">
+        <v>0.1094322346646405</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003007753380663091</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01566238339552458</v>
+      </c>
+      <c r="C67">
+        <v>0.06975423399681463</v>
+      </c>
+      <c r="D67">
+        <v>0.02617430877045758</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.007779090306810302</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001016886164859034</v>
+      </c>
+      <c r="C68">
+        <v>0.08744172131552318</v>
+      </c>
+      <c r="D68">
+        <v>-0.2567459413380113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002080097533635435</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006360024162865563</v>
+      </c>
+      <c r="C69">
+        <v>0.0521964000681157</v>
+      </c>
+      <c r="D69">
+        <v>0.03714256162329084</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0003894139682815901</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002009710251835046</v>
+      </c>
+      <c r="C70">
+        <v>0.00591471679471388</v>
+      </c>
+      <c r="D70">
+        <v>0.0007281464063115103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.002601270355213695</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005642433461253671</v>
+      </c>
+      <c r="C71">
+        <v>0.09198535720476654</v>
+      </c>
+      <c r="D71">
+        <v>-0.3009382386428577</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.005510306318139769</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01686075028899113</v>
+      </c>
+      <c r="C72">
+        <v>0.1564780207086265</v>
+      </c>
+      <c r="D72">
+        <v>0.01468008041707525</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.0141803434323527</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03207636754136193</v>
+      </c>
+      <c r="C73">
+        <v>0.28260876176643</v>
+      </c>
+      <c r="D73">
+        <v>0.0562144798593071</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.006566448541247673</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.00208709627807378</v>
+      </c>
+      <c r="C74">
+        <v>0.1023240462357632</v>
+      </c>
+      <c r="D74">
+        <v>0.03604553392441136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.004476377397322002</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01142141856106846</v>
+      </c>
+      <c r="C75">
+        <v>0.122367398934333</v>
+      </c>
+      <c r="D75">
+        <v>0.02393990554624394</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.006723854747558211</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02235454127473172</v>
+      </c>
+      <c r="C76">
+        <v>0.1473050204179224</v>
+      </c>
+      <c r="D76">
+        <v>0.05859161665004735</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001573309679369203</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02183184814546357</v>
+      </c>
+      <c r="C77">
+        <v>0.1128101406285585</v>
+      </c>
+      <c r="D77">
+        <v>0.04976150446797519</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0004340054429577042</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01511955732562089</v>
+      </c>
+      <c r="C78">
+        <v>0.09619405761131186</v>
+      </c>
+      <c r="D78">
+        <v>0.07738985701013318</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02171192596382452</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03862460924400522</v>
+      </c>
+      <c r="C79">
+        <v>0.1562867672208634</v>
+      </c>
+      <c r="D79">
+        <v>0.03225323070754173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006780499233867029</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01004770097082601</v>
+      </c>
+      <c r="C80">
+        <v>0.03776459809396732</v>
+      </c>
+      <c r="D80">
+        <v>0.03118444441360207</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0004004495465535628</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01588924879882517</v>
+      </c>
+      <c r="C81">
+        <v>0.1292689765244323</v>
+      </c>
+      <c r="D81">
+        <v>0.03811597135839946</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.003335424593637071</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02025262436714407</v>
+      </c>
+      <c r="C82">
+        <v>0.1391770250699312</v>
+      </c>
+      <c r="D82">
+        <v>0.04009736580959619</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.006709618185610261</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01060769309976824</v>
+      </c>
+      <c r="C83">
+        <v>0.05911722213320539</v>
+      </c>
+      <c r="D83">
+        <v>0.05017713475072984</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01293851741985147</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01193069795816057</v>
+      </c>
+      <c r="C84">
+        <v>0.03735870216500363</v>
+      </c>
+      <c r="D84">
+        <v>-0.003002188338716284</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01349074064365436</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02956089504671665</v>
+      </c>
+      <c r="C85">
+        <v>0.124488651913372</v>
+      </c>
+      <c r="D85">
+        <v>0.0410032272238576</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0008095502849988194</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.00468339105434596</v>
+      </c>
+      <c r="C86">
+        <v>0.05080771960495649</v>
+      </c>
+      <c r="D86">
+        <v>0.02754322997026503</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004158631714522286</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01086264088691631</v>
+      </c>
+      <c r="C87">
+        <v>0.1279406890909817</v>
+      </c>
+      <c r="D87">
+        <v>0.07481753706072923</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01167092736196662</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002836188881811792</v>
+      </c>
+      <c r="C88">
+        <v>0.06365598590720797</v>
+      </c>
+      <c r="D88">
+        <v>0.02587923307558903</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01599653996254293</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.00182581167622717</v>
+      </c>
+      <c r="C89">
+        <v>0.1401547393901853</v>
+      </c>
+      <c r="D89">
+        <v>-0.3195834741294853</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.005444525654767023</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006721456092613588</v>
+      </c>
+      <c r="C90">
+        <v>0.1209781659257308</v>
+      </c>
+      <c r="D90">
+        <v>-0.3140096388706152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.001035243054859122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01054617663574013</v>
+      </c>
+      <c r="C91">
+        <v>0.099120692902309</v>
+      </c>
+      <c r="D91">
+        <v>0.02554683261857177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01227400117985553</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0004895530766060853</v>
+      </c>
+      <c r="C92">
+        <v>0.1351556892496548</v>
+      </c>
+      <c r="D92">
+        <v>-0.323372365212661</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.002930140822958107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004708085284058219</v>
+      </c>
+      <c r="C93">
+        <v>0.1061334487324225</v>
+      </c>
+      <c r="D93">
+        <v>-0.29932115610959</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.0002508426984381238</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02194740408618551</v>
+      </c>
+      <c r="C94">
+        <v>0.1430367188360725</v>
+      </c>
+      <c r="D94">
+        <v>0.05295189384889298</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.002944787565570721</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01675817593409058</v>
+      </c>
+      <c r="C95">
+        <v>0.1214691448729075</v>
+      </c>
+      <c r="D95">
+        <v>0.06548458511657883</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0001537923991993998</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.0372393351087956</v>
+      </c>
+      <c r="C97">
+        <v>0.22395546559184</v>
+      </c>
+      <c r="D97">
+        <v>0.003187533653953319</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.0007393142083570328</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03827802870633813</v>
+      </c>
+      <c r="C98">
+        <v>0.2559625156090828</v>
+      </c>
+      <c r="D98">
+        <v>0.03621065952734484</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.985473514358003</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9812510970653389</v>
+      </c>
+      <c r="C99">
+        <v>-0.1206449095807933</v>
+      </c>
+      <c r="D99">
+        <v>-0.02465835234498692</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001487042125950742</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002655435394336542</v>
+      </c>
+      <c r="C101">
+        <v>0.04865070965482593</v>
+      </c>
+      <c r="D101">
+        <v>0.009195928259051028</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
